--- a/data/trans_camb/P2C_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 16,48</t>
+          <t>3,02; 16,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,19; -1,37</t>
+          <t>-14,06; -1,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,66; -17,34</t>
+          <t>-29,07; -18,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 25,53</t>
+          <t>10,1; 26,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 14,13</t>
+          <t>-1,13; 14,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,4; -16,63</t>
+          <t>-29,7; -17,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,11; 18,54</t>
+          <t>7,78; 18,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 3,43</t>
+          <t>-6,09; 3,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-26,8; -19,29</t>
+          <t>-27,17; -19,18</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 53,73</t>
+          <t>8,15; 54,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,69; -4,51</t>
+          <t>-38,15; -4,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,68; -57,09</t>
+          <t>-77,21; -58,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,75; 80,43</t>
+          <t>25,79; 81,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 43,4</t>
+          <t>-2,68; 43,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,44; -52,59</t>
+          <t>-71,66; -53,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,17; 56,48</t>
+          <t>20,34; 55,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 10,48</t>
+          <t>-16,34; 9,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,57; -58,65</t>
+          <t>-72,09; -58,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 24,02</t>
+          <t>9,74; 23,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 16,27</t>
+          <t>1,4; 15,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,76; -14,44</t>
+          <t>-25,5; -14,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 29,19</t>
+          <t>14,29; 30,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 15,75</t>
+          <t>0,95; 15,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,36; -19,76</t>
+          <t>-31,37; -19,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 23,27</t>
+          <t>12,72; 23,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 13,56</t>
+          <t>3,1; 13,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-27,55; -19,11</t>
+          <t>-26,99; -18,61</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,08; 93,05</t>
+          <t>29,34; 91,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 61,48</t>
+          <t>4,25; 61,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,98; -54,83</t>
+          <t>-77,93; -57,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,86; 82,03</t>
+          <t>32,1; 84,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 43,67</t>
+          <t>2,19; 42,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,83; -53,65</t>
+          <t>-71,51; -53,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,28; 73,11</t>
+          <t>33,88; 73,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 42,34</t>
+          <t>8,32; 41,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-72,81; -58,87</t>
+          <t>-72,25; -57,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 20,13</t>
+          <t>9,02; 20,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 7,85</t>
+          <t>-3,84; 7,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,54; -13,3</t>
+          <t>-30,98; -13,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 13,78</t>
+          <t>-5,96; 13,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 6,74</t>
+          <t>-15,63; 5,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,8; -23,05</t>
+          <t>-40,93; -24,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 17,1</t>
+          <t>6,7; 16,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 5,49</t>
+          <t>-4,96; 5,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-33,47; -18,15</t>
+          <t>-32,27; -17,49</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,92; 70,68</t>
+          <t>27,08; 72,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 28,03</t>
+          <t>-11,09; 27,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,24; -43,85</t>
+          <t>-88,52; -43,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 34,49</t>
+          <t>-12,18; 32,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 18,35</t>
+          <t>-31,04; 14,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,01; -58,39</t>
+          <t>-79,82; -60,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,8; 54,53</t>
+          <t>18,33; 51,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 17,58</t>
+          <t>-13,43; 17,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-86,25; -53,1</t>
+          <t>-87,54; -52,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,91; 23,17</t>
+          <t>15,1; 23,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,18</t>
+          <t>-1,74; 6,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,6; -11,15</t>
+          <t>-17,6; -11,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,52; 23,8</t>
+          <t>13,42; 23,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,99</t>
+          <t>-0,07; 9,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 27,81</t>
+          <t>-24,67; 27,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,0; 22,21</t>
+          <t>16,04; 22,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,92</t>
+          <t>1,17; 7,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 14,91</t>
+          <t>-18,56; 13,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,51; 84,13</t>
+          <t>48,77; 83,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 23,12</t>
+          <t>-5,96; 22,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,02; -39,95</t>
+          <t>-57,24; -40,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31,93; 66,7</t>
+          <t>32,32; 65,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 28,06</t>
+          <t>-0,19; 28,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,29; 76,22</t>
+          <t>-62,17; 79,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>46,88; 71,56</t>
+          <t>47,13; 71,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,02; 22,57</t>
+          <t>3,42; 23,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,91; 47,44</t>
+          <t>-55,68; 42,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,96; 20,84</t>
+          <t>7,52; 20,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 9,75</t>
+          <t>-2,83; 9,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-22,33; -10,76</t>
+          <t>-22,59; -11,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,91; 23,56</t>
+          <t>12,7; 23,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 8,15</t>
+          <t>-3,13; 8,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-25,56; -14,54</t>
+          <t>-25,8; -14,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,2; 21,18</t>
+          <t>12,34; 20,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 6,78</t>
+          <t>-1,52; 6,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-23,24; -14,83</t>
+          <t>-22,66; -14,29</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22,33; 80,51</t>
+          <t>23,4; 82,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 37,94</t>
+          <t>-8,64; 37,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,93; -42,38</t>
+          <t>-67,93; -42,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>31,34; 67,72</t>
+          <t>30,58; 69,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 23,33</t>
+          <t>-7,71; 24,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-64,45; -42,04</t>
+          <t>-64,55; -42,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>33,66; 66,54</t>
+          <t>32,63; 64,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 21,59</t>
+          <t>-4,11; 21,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-62,45; -45,38</t>
+          <t>-62,41; -44,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,87; 21,55</t>
+          <t>6,37; 20,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 10,57</t>
+          <t>-2,92; 11,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,74; -4,84</t>
+          <t>-16,37; -4,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10,51; 18,3</t>
+          <t>10,53; 18,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 5,81</t>
+          <t>-1,66; 5,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,31; -1,48</t>
+          <t>-8,6; -1,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,05; 17,64</t>
+          <t>10,87; 18,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,52</t>
+          <t>-1,1; 5,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -3,72</t>
+          <t>-10,0; -3,62</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>30,12; 148,8</t>
+          <t>27,77; 139,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 80,19</t>
+          <t>-14,94; 75,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-82,26; -29,02</t>
+          <t>-81,5; -24,83</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>36,43; 73,11</t>
+          <t>36,47; 73,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 22,38</t>
+          <t>-5,95; 21,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,22; -6,02</t>
+          <t>-30,03; -5,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>41,41; 73,68</t>
+          <t>40,61; 77,62</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 23,62</t>
+          <t>-4,07; 22,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,97; -15,26</t>
+          <t>-37,85; -15,72</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>13,08; 17,86</t>
+          <t>13,24; 18,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,24</t>
+          <t>-0,16; 4,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-20,35; -15,34</t>
+          <t>-20,48; -15,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>14,55; 19,38</t>
+          <t>14,55; 19,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,67</t>
+          <t>1,52; 6,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 3,25</t>
+          <t>-17,95; 1,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>14,57; 18,08</t>
+          <t>14,63; 18,1</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,86</t>
+          <t>1,64; 4,92</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -5,17</t>
+          <t>-18,11; -6,54</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>43,09; 63,5</t>
+          <t>43,03; 64,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 15,28</t>
+          <t>-0,51; 16,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-68,29; -54,44</t>
+          <t>-68,42; -54,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>40,54; 57,95</t>
+          <t>40,32; 58,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>5,69; 20,0</t>
+          <t>4,26; 19,22</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 9,49</t>
+          <t>-51,77; 4,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>44,26; 58,29</t>
+          <t>44,61; 58,04</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4,15; 15,6</t>
+          <t>5,04; 15,86</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-56,41; -16,09</t>
+          <t>-56,15; -20,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
